--- a/feature/cpts/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-06-14</t>
+    <t>2024-06-20T07:27:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T07:27:39+00:00</t>
+    <t>2024-06-20T12:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T12:10:02+00:00</t>
+    <t>2024-06-20T15:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T15:16:37+00:00</t>
+    <t>2024-06-20T15:30:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T15:30:31+00:00</t>
+    <t>2024-06-20T15:44:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T15:44:13+00:00</t>
+    <t>2024-06-20T16:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-20T16:03:01+00:00</t>
+    <t>2024-06-21T08:14:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T08:14:05+00:00</t>
+    <t>2024-06-21T08:48:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T08:48:47+00:00</t>
+    <t>2024-06-26T17:15:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4750,10 +4750,10 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S33" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>72</v>
@@ -4854,10 +4854,10 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="S34" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>72</v>
       </c>
       <c r="T34" t="s" s="2">
         <v>181</v>

--- a/feature/cpts/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-26T17:15:09+00:00</t>
+    <t>2024-06-27T11:51:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T11:51:58+00:00</t>
+    <t>2024-06-27T12:50:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T12:50:32+00:00</t>
+    <t>2024-06-27T13:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:56:11+00:00</t>
+    <t>2024-07-01T09:27:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
+++ b/feature/cpts/ig/StructureDefinition-FrPractitionerRoleExerciceAgregateur.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T09:27:46+00:00</t>
+    <t>2024-07-01T12:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
